--- a/data/trans_orig/P32B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P32B-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>2860</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7411</v>
+        <v>7739</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0195670627058476</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006228571584406846</v>
+        <v>0.006292628439524562</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05071173903699678</v>
+        <v>0.05295075647680218</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7148</v>
+        <v>6512</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02968460349388775</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09727768337358679</v>
+        <v>0.08862692872572449</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -786,19 +786,19 @@
         <v>5041</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1944</v>
+        <v>1874</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11254</v>
+        <v>11014</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02295189435183095</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008850491671023666</v>
+        <v>0.008532475215624198</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05124069643712603</v>
+        <v>0.05014748705469389</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>143289</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>138738</v>
+        <v>138410</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>145239</v>
+        <v>145229</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9804329372941524</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.949288260963003</v>
+        <v>0.9470492435231977</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9937714284155932</v>
+        <v>0.9937073715604755</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>68</v>
@@ -836,7 +836,7 @@
         <v>71295</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>66328</v>
+        <v>66964</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>73476</v>
@@ -845,7 +845,7 @@
         <v>0.9703153965061122</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9027223166264129</v>
+        <v>0.9113730712742754</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>214584</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>208371</v>
+        <v>208611</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>217681</v>
+        <v>217751</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.977048105648169</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9487593035628742</v>
+        <v>0.949852512945306</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9911495083289764</v>
+        <v>0.9914675247843757</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>3823</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>999</v>
+        <v>922</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8777</v>
+        <v>8943</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01670874191242342</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004364162305387233</v>
+        <v>0.004028590081967898</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0383568508862693</v>
+        <v>0.03908278036186118</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>3823</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1029</v>
+        <v>936</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9546</v>
+        <v>8981</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01267789257487409</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003410680936258975</v>
+        <v>0.003102788588999223</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03165497046672869</v>
+        <v>0.0297795180725398</v>
       </c>
     </row>
     <row r="8">
@@ -1024,19 +1024,19 @@
         <v>224994</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>220040</v>
+        <v>219874</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>227818</v>
+        <v>227895</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9832912580875766</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9616431491137307</v>
+        <v>0.9609172196381373</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9956358376946127</v>
+        <v>0.995971409918032</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>72</v>
@@ -1058,19 +1058,19 @@
         <v>297745</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>292022</v>
+        <v>292587</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>300539</v>
+        <v>300632</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9873221074251259</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9683450295332713</v>
+        <v>0.970220481927462</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.996589319063741</v>
+        <v>0.9968972114110025</v>
       </c>
     </row>
     <row r="9">
@@ -1331,19 +1331,19 @@
         <v>3493</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10664</v>
+        <v>9913</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01468466384368101</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004121386706329905</v>
+        <v>0.004073072525783592</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04482598821996395</v>
+        <v>0.04167136649517693</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6692</v>
+        <v>6677</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008955451227019535</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05111035742612371</v>
+        <v>0.05100076317945702</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1373,19 +1373,19 @@
         <v>4666</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1076</v>
+        <v>1182</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>11109</v>
+        <v>11131</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01265087462176681</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002916174047266343</v>
+        <v>0.003203596975969532</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03011966735439781</v>
+        <v>0.03017994007809742</v>
       </c>
     </row>
     <row r="14">
@@ -1402,19 +1402,19 @@
         <v>234402</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>227231</v>
+        <v>227982</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>236915</v>
+        <v>236926</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9853153361563189</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.955174011780036</v>
+        <v>0.9583286335048238</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9958786132936701</v>
+        <v>0.9959269274742164</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>132</v>
@@ -1423,7 +1423,7 @@
         <v>129753</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>124234</v>
+        <v>124249</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>130926</v>
@@ -1432,7 +1432,7 @@
         <v>0.9910445487729804</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9488896425738762</v>
+        <v>0.9489992368205423</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1444,19 +1444,19 @@
         <v>364156</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>357713</v>
+        <v>357691</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>367746</v>
+        <v>367640</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9873491253782332</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9698803326456022</v>
+        <v>0.969820059921903</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9970838259527337</v>
+        <v>0.9967964030240305</v>
       </c>
     </row>
     <row r="15">
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4623</v>
+        <v>4628</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009239868398853122</v>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04770938414503432</v>
+        <v>0.04776059530045665</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4516</v>
+        <v>4521</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006209140945782711</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03131971100686781</v>
+        <v>0.03135316200476772</v>
       </c>
     </row>
     <row r="17">
@@ -1611,7 +1611,7 @@
         <v>96003</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>92275</v>
+        <v>92270</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>96898</v>
@@ -1620,7 +1620,7 @@
         <v>0.9907601316011468</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9522906158549657</v>
+        <v>0.9522394046995434</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1645,7 +1645,7 @@
         <v>143299</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>139678</v>
+        <v>139673</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>144194</v>
@@ -1654,7 +1654,7 @@
         <v>0.9937908590542173</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9686802889931323</v>
+        <v>0.9686468379952324</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9454</v>
+        <v>9191</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01344440946721224</v>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04865900769865667</v>
+        <v>0.04730778662120639</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1770,19 +1770,19 @@
         <v>3005</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>944</v>
+        <v>931</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8135</v>
+        <v>8020</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02688209427616929</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008443882810257973</v>
+        <v>0.008329224376568734</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07277905297024793</v>
+        <v>0.07174616111780643</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -1791,19 +1791,19 @@
         <v>5617</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2004</v>
+        <v>1808</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13413</v>
+        <v>12338</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0183521856050702</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006548645572941767</v>
+        <v>0.005908418517189213</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04382476166836168</v>
+        <v>0.04031264823917037</v>
       </c>
     </row>
     <row r="20">
@@ -1820,7 +1820,7 @@
         <v>191672</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>184830</v>
+        <v>185093</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>194284</v>
@@ -1829,7 +1829,7 @@
         <v>0.9865555905327877</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9513409923013434</v>
+        <v>0.9526922133787934</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1841,19 +1841,19 @@
         <v>108778</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>103648</v>
+        <v>103763</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>110839</v>
+        <v>110852</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9731179057238307</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9272209470297521</v>
+        <v>0.9282538388821937</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.991556117189742</v>
+        <v>0.9916707756234313</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>291</v>
@@ -1862,19 +1862,19 @@
         <v>300450</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>292654</v>
+        <v>293729</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>304063</v>
+        <v>304259</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9816478143949298</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9561752383316378</v>
+        <v>0.9596873517608295</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9934513544270582</v>
+        <v>0.9940915814828108</v>
       </c>
     </row>
     <row r="21">
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6195</v>
+        <v>5879</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.003366665957280203</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01256867603595854</v>
+        <v>0.01192714236918565</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2156,19 +2156,19 @@
         <v>2973</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>927</v>
+        <v>935</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8007</v>
+        <v>7996</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01238879511900169</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00386279396067296</v>
+        <v>0.003898911430454661</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03336965987554241</v>
+        <v>0.03332471072953679</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -2177,19 +2177,19 @@
         <v>4632</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1659</v>
+        <v>1023</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>9694</v>
+        <v>10429</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.006320647739848019</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002263356948632045</v>
+        <v>0.001395447921378881</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01322834147830464</v>
+        <v>0.01423069727238248</v>
       </c>
     </row>
     <row r="26">
@@ -2206,7 +2206,7 @@
         <v>491229</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>486693</v>
+        <v>487009</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>492888</v>
@@ -2215,7 +2215,7 @@
         <v>0.9966333340427198</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9874313239640417</v>
+        <v>0.9880728576308144</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -2227,19 +2227,19 @@
         <v>236965</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>231931</v>
+        <v>231942</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>239011</v>
+        <v>239003</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9876112048809983</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9666303401244576</v>
+        <v>0.9666752892704633</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.996137206039327</v>
+        <v>0.9961010885695454</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>707</v>
@@ -2248,19 +2248,19 @@
         <v>728194</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>723132</v>
+        <v>722397</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>731167</v>
+        <v>731803</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.993679352260152</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9867716585216955</v>
+        <v>0.9857693027276175</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.997736643051368</v>
+        <v>0.9986045520786211</v>
       </c>
     </row>
     <row r="27">
@@ -2352,19 +2352,19 @@
         <v>15343</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8874</v>
+        <v>9248</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>24825</v>
+        <v>24249</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.008161581761138048</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.004720377779694115</v>
+        <v>0.004919208140667044</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01320536852441692</v>
+        <v>0.01289902679209168</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>9</v>
@@ -2373,19 +2373,19 @@
         <v>9331</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4325</v>
+        <v>5014</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>17195</v>
+        <v>17449</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01043141985370172</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.004835474993158494</v>
+        <v>0.005605348878450519</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01922248352337151</v>
+        <v>0.01950625053626756</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>24</v>
@@ -2394,19 +2394,19 @@
         <v>24674</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>16298</v>
+        <v>16281</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>35337</v>
+        <v>36046</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.008893411436093571</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.005874340007319813</v>
+        <v>0.005868327643537218</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01273656622893044</v>
+        <v>0.01299220238073082</v>
       </c>
     </row>
     <row r="29">
@@ -2423,19 +2423,19 @@
         <v>1864575</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1855093</v>
+        <v>1855669</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1871044</v>
+        <v>1870670</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.991838418238862</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9867946314755831</v>
+        <v>0.9871009732079083</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9952796222203059</v>
+        <v>0.995080791859333</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>865</v>
@@ -2444,19 +2444,19 @@
         <v>885189</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>877325</v>
+        <v>877071</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>890195</v>
+        <v>889506</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9895685801462982</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9807775164766285</v>
+        <v>0.9804937494637324</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9951645250068415</v>
+        <v>0.9943946511215495</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2695</v>
@@ -2465,19 +2465,19 @@
         <v>2749765</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2739102</v>
+        <v>2738393</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2758141</v>
+        <v>2758158</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9911065885639064</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9872634337710695</v>
+        <v>0.9870077976192693</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9941256599926802</v>
+        <v>0.9941316723564628</v>
       </c>
     </row>
     <row r="30">
@@ -2813,19 +2813,19 @@
         <v>18335</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11378</v>
+        <v>11247</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27648</v>
+        <v>28065</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.104576233526585</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06489633576862375</v>
+        <v>0.06414753023997921</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1576955189148209</v>
+        <v>0.1600735588296183</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6662</v>
+        <v>6173</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01835627712081821</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06073403883110467</v>
+        <v>0.05627696439625197</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -2855,19 +2855,19 @@
         <v>20348</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12039</v>
+        <v>13062</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30079</v>
+        <v>31613</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07139355819657897</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04223967457440422</v>
+        <v>0.04582898005005859</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1055341303824861</v>
+        <v>0.1109160287078822</v>
       </c>
     </row>
     <row r="5">
@@ -2884,19 +2884,19 @@
         <v>156990</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>147677</v>
+        <v>147260</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>163947</v>
+        <v>164078</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.895423766473415</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8423044810851792</v>
+        <v>0.8399264411703817</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9351036642313764</v>
+        <v>0.9358524697600208</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>93</v>
@@ -2905,7 +2905,7 @@
         <v>107678</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>103030</v>
+        <v>103519</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>109692</v>
@@ -2914,7 +2914,7 @@
         <v>0.9816437228791818</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9392659611688916</v>
+        <v>0.9437230356037476</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2926,19 +2926,19 @@
         <v>264669</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>254938</v>
+        <v>253404</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>272978</v>
+        <v>271955</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.928606441803421</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.894465869617514</v>
+        <v>0.8890839712921178</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9577603254255959</v>
+        <v>0.9541710199499414</v>
       </c>
     </row>
     <row r="6">
@@ -3030,19 +3030,19 @@
         <v>9049</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3993</v>
+        <v>3895</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18906</v>
+        <v>17904</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02918019176035177</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01287604892993529</v>
+        <v>0.0125595587509874</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06096349154890881</v>
+        <v>0.05773292490863122</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -3064,19 +3064,19 @@
         <v>9049</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4003</v>
+        <v>3914</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18737</v>
+        <v>18051</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01960935645652684</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008675163884797615</v>
+        <v>0.008480306212982833</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04060247273912371</v>
+        <v>0.03911445977830866</v>
       </c>
     </row>
     <row r="8">
@@ -3093,19 +3093,19 @@
         <v>301071</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>291214</v>
+        <v>292216</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>306127</v>
+        <v>306225</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9708198082396482</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9390365084510913</v>
+        <v>0.9422670750913685</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9871239510700647</v>
+        <v>0.9874404412490125</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>139</v>
@@ -3127,19 +3127,19 @@
         <v>452433</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>442745</v>
+        <v>443431</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>457479</v>
+        <v>457568</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9803906435434732</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9593975272608775</v>
+        <v>0.9608855402216914</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9913248361152024</v>
+        <v>0.9915196937870172</v>
       </c>
     </row>
     <row r="9">
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4850</v>
+        <v>5250</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0079091815023764</v>
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03890558783145547</v>
+        <v>0.04211476454739124</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4348</v>
+        <v>4969</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003013769512700836</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01329139283098895</v>
+        <v>0.01518903592580932</v>
       </c>
     </row>
     <row r="11">
@@ -3307,7 +3307,7 @@
         <v>123663</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>119799</v>
+        <v>119399</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>124649</v>
@@ -3316,7 +3316,7 @@
         <v>0.9920908184976236</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9610944121685444</v>
+        <v>0.9578852354526063</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3328,7 +3328,7 @@
         <v>326136</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>322774</v>
+        <v>322153</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>327122</v>
@@ -3337,7 +3337,7 @@
         <v>0.9969862304872992</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9867086071690103</v>
+        <v>0.9848109640741907</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4616</v>
+        <v>4653</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004835956459800487</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02416631737175545</v>
+        <v>0.02435546738619567</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>4674</v>
+        <v>4610</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.003318619160353193</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01678950252952783</v>
+        <v>0.01655980887262553</v>
       </c>
     </row>
     <row r="14">
@@ -3495,7 +3495,7 @@
         <v>190105</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>186413</v>
+        <v>186376</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>191029</v>
@@ -3504,7 +3504,7 @@
         <v>0.9951640435401995</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9758336826282447</v>
+        <v>0.9756445326138043</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -3529,7 +3529,7 @@
         <v>277447</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>273697</v>
+        <v>273761</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>278371</v>
@@ -3538,7 +3538,7 @@
         <v>0.9966813808396469</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9832104974704722</v>
+        <v>0.9834401911273744</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -3633,19 +3633,19 @@
         <v>5193</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1929</v>
+        <v>1956</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11874</v>
+        <v>11455</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04050809639247655</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01504231049849139</v>
+        <v>0.01525322776715254</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09261702816723029</v>
+        <v>0.08934391041926221</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -3667,19 +3667,19 @@
         <v>5193</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1965</v>
+        <v>1959</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11938</v>
+        <v>11976</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02848588012192859</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01078040817946403</v>
+        <v>0.01074612587572168</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06547828343594626</v>
+        <v>0.06568943844083018</v>
       </c>
     </row>
     <row r="17">
@@ -3696,19 +3696,19 @@
         <v>123015</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>116334</v>
+        <v>116753</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>126279</v>
+        <v>126252</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9594919036075235</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9073829718327695</v>
+        <v>0.9106560895807386</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9849576895015086</v>
+        <v>0.9847467722328475</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>51</v>
@@ -3730,19 +3730,19 @@
         <v>177124</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>170379</v>
+        <v>170341</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>180352</v>
+        <v>180358</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9715141198780715</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9345217165640541</v>
+        <v>0.9343105615591699</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.989219591820536</v>
+        <v>0.9892538741242783</v>
       </c>
     </row>
     <row r="18">
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5260</v>
+        <v>5822</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005731049964802492</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02860822711577162</v>
+        <v>0.03166165826567217</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -3871,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5333</v>
+        <v>5278</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.003789486545486893</v>
@@ -3880,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01917912802214206</v>
+        <v>0.01897932089195987</v>
       </c>
     </row>
     <row r="20">
@@ -3897,7 +3897,7 @@
         <v>182815</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>178609</v>
+        <v>178047</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>183869</v>
@@ -3906,7 +3906,7 @@
         <v>0.9942689500351976</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9713917728842282</v>
+        <v>0.9683383417343266</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3931,7 +3931,7 @@
         <v>277021</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>272742</v>
+        <v>272797</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>278075</v>
@@ -3940,7 +3940,7 @@
         <v>0.9962105134545131</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9808208719778579</v>
+        <v>0.9810206791080401</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -4035,19 +4035,19 @@
         <v>14777</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8343</v>
+        <v>8625</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25189</v>
+        <v>25845</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0371771310871889</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02099121843920669</v>
+        <v>0.02170105769631388</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06337369553117365</v>
+        <v>0.06502308838591228</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -4056,19 +4056,19 @@
         <v>3211</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>972</v>
+        <v>941</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9614</v>
+        <v>8984</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01504310509368315</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004551756716194224</v>
+        <v>0.004408828353524612</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0450370025743676</v>
+        <v>0.04208752467985927</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -4077,19 +4077,19 @@
         <v>17988</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10975</v>
+        <v>10559</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>30028</v>
+        <v>28973</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02944349665149165</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01796380181442036</v>
+        <v>0.0172834936970595</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0491517782181669</v>
+        <v>0.04742502976455222</v>
       </c>
     </row>
     <row r="23">
@@ -4106,19 +4106,19 @@
         <v>382692</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>372280</v>
+        <v>371624</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>389126</v>
+        <v>388844</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9628228689128111</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9366263044688267</v>
+        <v>0.9349769116140876</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.979008781560794</v>
+        <v>0.9782989423036856</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>191</v>
@@ -4127,19 +4127,19 @@
         <v>210247</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>203844</v>
+        <v>204474</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>212486</v>
+        <v>212517</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9849568949063169</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9549629974256325</v>
+        <v>0.9579124753201408</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9954482432838058</v>
+        <v>0.9955911716464754</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>553</v>
@@ -4148,19 +4148,19 @@
         <v>592940</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>580900</v>
+        <v>581955</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>599953</v>
+        <v>600369</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9705565033485084</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9508482217818334</v>
+        <v>0.9525749702354479</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9820361981855796</v>
+        <v>0.9827165063029405</v>
       </c>
     </row>
     <row r="24">
@@ -4252,19 +4252,19 @@
         <v>9130</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3984</v>
+        <v>4260</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>16179</v>
+        <v>17000</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02012031582874444</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008779883880511437</v>
+        <v>0.009387568263966448</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03565692595610331</v>
+        <v>0.03746626925798125</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4945</v>
+        <v>5966</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.004656142880845007</v>
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02311765277781752</v>
+        <v>0.02788725959493674</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -4294,19 +4294,19 @@
         <v>10126</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5142</v>
+        <v>5074</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>18466</v>
+        <v>17438</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0151656538748487</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007702009683053037</v>
+        <v>0.007600316057816094</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02765802346708151</v>
+        <v>0.02611810630534043</v>
       </c>
     </row>
     <row r="26">
@@ -4323,19 +4323,19 @@
         <v>444620</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>437571</v>
+        <v>436750</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>449766</v>
+        <v>449490</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9798796841712556</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9643430740438964</v>
+        <v>0.9625337307420189</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9912201161194886</v>
+        <v>0.9906124317360335</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>195</v>
@@ -4344,7 +4344,7 @@
         <v>212923</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>208974</v>
+        <v>207953</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>213919</v>
@@ -4353,7 +4353,7 @@
         <v>0.995343857119155</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9768823472221825</v>
+        <v>0.9721127404050632</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -4365,19 +4365,19 @@
         <v>657543</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>649203</v>
+        <v>650231</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>662527</v>
+        <v>662595</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9848343461251513</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9723419765329184</v>
+        <v>0.9738818936946595</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.992297990316947</v>
+        <v>0.9923996839421839</v>
       </c>
     </row>
     <row r="27">
@@ -4469,19 +4469,19 @@
         <v>58462</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>44597</v>
+        <v>44092</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>76561</v>
+        <v>75541</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0286261508400011</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02183725375963793</v>
+        <v>0.02158982205069808</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03748880031700936</v>
+        <v>0.03698935646267665</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -4490,19 +4490,19 @@
         <v>7207</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3059</v>
+        <v>3103</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>13757</v>
+        <v>14583</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.006871613161946873</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.002916846375051432</v>
+        <v>0.002959165890967254</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01311776030974178</v>
+        <v>0.01390514901540281</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>62</v>
@@ -4511,19 +4511,19 @@
         <v>65668</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>49536</v>
+        <v>51421</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>83372</v>
+        <v>83559</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02124506827624544</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01602602527691192</v>
+        <v>0.0166359273610199</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02697281753136162</v>
+        <v>0.02703321172348632</v>
       </c>
     </row>
     <row r="29">
@@ -4540,19 +4540,19 @@
         <v>1983782</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1965683</v>
+        <v>1966703</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1997647</v>
+        <v>1998152</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9713738491599989</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9625111996829908</v>
+        <v>0.9630106435373234</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9781627462403621</v>
+        <v>0.9784101779493017</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>956</v>
@@ -4561,19 +4561,19 @@
         <v>1041530</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1034980</v>
+        <v>1034154</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1045678</v>
+        <v>1045634</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9931283868380532</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9868822396902583</v>
+        <v>0.9860948509845969</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9970831536249486</v>
+        <v>0.9970408341090327</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2822</v>
@@ -4582,19 +4582,19 @@
         <v>3025312</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3007608</v>
+        <v>3007421</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3041444</v>
+        <v>3039559</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9787549317237546</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9730271824686388</v>
+        <v>0.9729667882765135</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9839739747230881</v>
+        <v>0.9833640726389801</v>
       </c>
     </row>
     <row r="30">
@@ -4930,19 +4930,19 @@
         <v>13342</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7515</v>
+        <v>7222</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23068</v>
+        <v>23030</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07467423642831263</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04205811439574218</v>
+        <v>0.04042121021103735</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1291069618351814</v>
+        <v>0.128892924142843</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -4951,19 +4951,19 @@
         <v>4712</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1833</v>
+        <v>1660</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10959</v>
+        <v>10090</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04438769419096326</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01726279305588014</v>
+        <v>0.01563998961867466</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1032312073714253</v>
+        <v>0.09504600330677876</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>17</v>
@@ -4972,19 +4972,19 @@
         <v>18054</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11373</v>
+        <v>10730</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28366</v>
+        <v>28836</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06338608197125926</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03992739308798159</v>
+        <v>0.03766978184164339</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09958948943773019</v>
+        <v>0.1012391648370241</v>
       </c>
     </row>
     <row r="5">
@@ -5001,19 +5001,19 @@
         <v>165330</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>155604</v>
+        <v>155642</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>171157</v>
+        <v>171450</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9253257635716874</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8708930381648188</v>
+        <v>0.8711070758571573</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9579418856042579</v>
+        <v>0.9595787897889628</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>99</v>
@@ -5022,19 +5022,19 @@
         <v>101449</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>95202</v>
+        <v>96071</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>104328</v>
+        <v>104501</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9556123058090368</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.896768792628575</v>
+        <v>0.9049539966932212</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9827372069441201</v>
+        <v>0.9843600103813253</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>252</v>
@@ -5043,19 +5043,19 @@
         <v>266779</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>256467</v>
+        <v>255997</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>273460</v>
+        <v>274103</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9366139180287407</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9004105105622698</v>
+        <v>0.8987608351629759</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9600726069120185</v>
+        <v>0.9623302181583565</v>
       </c>
     </row>
     <row r="6">
@@ -5319,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4395</v>
+        <v>4293</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004217772075323856</v>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02142783484036057</v>
+        <v>0.02093053569746001</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4902</v>
+        <v>4312</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002648154023787334</v>
@@ -5362,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01500556312911289</v>
+        <v>0.01319849416387766</v>
       </c>
     </row>
     <row r="11">
@@ -5379,7 +5379,7 @@
         <v>204250</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>200720</v>
+        <v>200822</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>205115</v>
@@ -5388,7 +5388,7 @@
         <v>0.9957822279246762</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9785721651596394</v>
+        <v>0.9790694643025399</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -5413,7 +5413,7 @@
         <v>325826</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>321789</v>
+        <v>322379</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>326691</v>
@@ -5422,7 +5422,7 @@
         <v>0.9973518459762126</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9849944368708878</v>
+        <v>0.9868015058361224</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7401</v>
+        <v>7885</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009568214647507815</v>
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03182988827554809</v>
+        <v>0.0339143765104878</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -5554,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7901</v>
+        <v>8277</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.005773860405269761</v>
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02050667347771504</v>
+        <v>0.02148133110145302</v>
       </c>
     </row>
     <row r="14">
@@ -5580,7 +5580,7 @@
         <v>230286</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>225110</v>
+        <v>224626</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>232511</v>
@@ -5589,7 +5589,7 @@
         <v>0.9904317853524922</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9681701117244493</v>
+        <v>0.9660856234895108</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -5614,7 +5614,7 @@
         <v>383083</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>377407</v>
+        <v>377031</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>385308</v>
@@ -5623,7 +5623,7 @@
         <v>0.9942261395947303</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9794933265222849</v>
+        <v>0.9785186688985471</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -5718,19 +5718,19 @@
         <v>3640</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9342</v>
+        <v>8512</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03992384311676699</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01052761083488913</v>
+        <v>0.01049874561520495</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.102458152544074</v>
+        <v>0.09335462083634642</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -5752,19 +5752,19 @@
         <v>3640</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>943</v>
+        <v>962</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8567</v>
+        <v>9130</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02829467486419684</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007328995674111954</v>
+        <v>0.007480773340029879</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06658726559906623</v>
+        <v>0.0709660772582875</v>
       </c>
     </row>
     <row r="17">
@@ -5781,19 +5781,19 @@
         <v>87537</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>81835</v>
+        <v>82665</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>90217</v>
+        <v>90220</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.960076156883233</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8975418474559264</v>
+        <v>0.9066453791636536</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9894723891651108</v>
+        <v>0.9895012543847951</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>40</v>
@@ -5815,19 +5815,19 @@
         <v>125011</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>120084</v>
+        <v>119521</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>127708</v>
+        <v>127689</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9717053251358032</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9334127344009342</v>
+        <v>0.9290339227417119</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9926710043258881</v>
+        <v>0.9925192266599701</v>
       </c>
     </row>
     <row r="18">
@@ -5919,19 +5919,19 @@
         <v>3844</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9516</v>
+        <v>9646</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02033049844809559</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00522429303905244</v>
+        <v>0.005186046387072585</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05033675973170743</v>
+        <v>0.05102115855167014</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -5943,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4766</v>
+        <v>4091</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.008912591565464971</v>
@@ -5952,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04513212074360456</v>
+        <v>0.03873670020250099</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -5961,19 +5961,19 @@
         <v>4785</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1876</v>
+        <v>1021</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11400</v>
+        <v>10009</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01623843286577386</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006367037128766509</v>
+        <v>0.003466615667707592</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03869052204390658</v>
+        <v>0.03396833803965906</v>
       </c>
     </row>
     <row r="20">
@@ -5990,19 +5990,19 @@
         <v>185209</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>179537</v>
+        <v>179407</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>188065</v>
+        <v>188073</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9796695015519044</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9496632402682925</v>
+        <v>0.9489788414483297</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9947757069609475</v>
+        <v>0.9948139536129273</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>104</v>
@@ -6011,7 +6011,7 @@
         <v>104660</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>100835</v>
+        <v>101510</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>105601</v>
@@ -6020,7 +6020,7 @@
         <v>0.991087408434535</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9548678792563953</v>
+        <v>0.961263299797497</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -6032,19 +6032,19 @@
         <v>289869</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>283254</v>
+        <v>284645</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>292778</v>
+        <v>293633</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9837615671342261</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9613094779560936</v>
+        <v>0.966031661960341</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9936329628712335</v>
+        <v>0.9965333843322924</v>
       </c>
     </row>
     <row r="21">
@@ -6136,19 +6136,19 @@
         <v>12708</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6440</v>
+        <v>6255</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21722</v>
+        <v>21740</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03327327370223737</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01686307393670219</v>
+        <v>0.01637796749599232</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05687677571329967</v>
+        <v>0.05692353820744097</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -6157,19 +6157,19 @@
         <v>6103</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2853</v>
+        <v>2060</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>12140</v>
+        <v>12125</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02406352339955764</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01125067277790568</v>
+        <v>0.008123994970738863</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04786737691953015</v>
+        <v>0.04780953912726853</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>17</v>
@@ -6178,19 +6178,19 @@
         <v>18811</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11298</v>
+        <v>11677</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>29313</v>
+        <v>29799</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0295981116327331</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01777798922582233</v>
+        <v>0.01837411299588541</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.046123812727811</v>
+        <v>0.04688886587360389</v>
       </c>
     </row>
     <row r="23">
@@ -6207,19 +6207,19 @@
         <v>369214</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>360200</v>
+        <v>360182</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>375482</v>
+        <v>375667</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9667267262977627</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9431232242867004</v>
+        <v>0.9430764617925591</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9831369260632978</v>
+        <v>0.9836220325040077</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>232</v>
@@ -6228,19 +6228,19 @@
         <v>247507</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>241470</v>
+        <v>241485</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>250757</v>
+        <v>251550</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9759364766004424</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9521326230804698</v>
+        <v>0.9521904608727315</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9887493272220942</v>
+        <v>0.9918760050292611</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>553</v>
@@ -6249,19 +6249,19 @@
         <v>616721</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>606219</v>
+        <v>605733</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>624234</v>
+        <v>623855</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9704018883672669</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.953876187272189</v>
+        <v>0.9531111341263961</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9822220107741777</v>
+        <v>0.9816258870041146</v>
       </c>
     </row>
     <row r="24">
@@ -6353,19 +6353,19 @@
         <v>5611</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1930</v>
+        <v>1959</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12235</v>
+        <v>12694</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01229410361058462</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.004228340012705216</v>
+        <v>0.00429130801907671</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02680556851326601</v>
+        <v>0.02781261715694694</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -6387,19 +6387,19 @@
         <v>5611</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1859</v>
+        <v>1927</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>13377</v>
+        <v>13022</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.007775248863327507</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002576061552412647</v>
+        <v>0.002669626002572658</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01853503489510272</v>
+        <v>0.01804412338017301</v>
       </c>
     </row>
     <row r="26">
@@ -6416,19 +6416,19 @@
         <v>450815</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>444191</v>
+        <v>443732</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>454496</v>
+        <v>454467</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9877058963894154</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9731944314867336</v>
+        <v>0.9721873828430527</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9957716599872948</v>
+        <v>0.9957086919809233</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>244</v>
@@ -6450,19 +6450,19 @@
         <v>716082</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>708316</v>
+        <v>708671</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>719834</v>
+        <v>719766</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9922247511366725</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9814649651048976</v>
+        <v>0.981955876619827</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9974239384475875</v>
+        <v>0.9973303739974273</v>
       </c>
     </row>
     <row r="27">
@@ -6554,19 +6554,19 @@
         <v>42235</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>29877</v>
+        <v>29187</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>57145</v>
+        <v>57686</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02108988532709182</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01491885692777258</v>
+        <v>0.01457452095551534</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02853495599252737</v>
+        <v>0.02880516240130222</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>12</v>
@@ -6575,19 +6575,19 @@
         <v>11756</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5946</v>
+        <v>6588</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>19867</v>
+        <v>20357</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01026966867166868</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.005194030710306276</v>
+        <v>0.00575511526992899</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01735462291319657</v>
+        <v>0.01778307388496512</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>51</v>
@@ -6596,19 +6596,19 @@
         <v>53991</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>40350</v>
+        <v>40594</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>70093</v>
+        <v>70881</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01715439910276291</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0128204070235271</v>
+        <v>0.01289779516664207</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0222704794329203</v>
+        <v>0.022520919483899</v>
       </c>
     </row>
     <row r="29">
@@ -6625,19 +6625,19 @@
         <v>1960379</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1945469</v>
+        <v>1944928</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1972737</v>
+        <v>1973427</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9789101146729082</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9714650440074727</v>
+        <v>0.9711948375986977</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9850811430722275</v>
+        <v>0.9854254790444847</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1082</v>
@@ -6646,19 +6646,19 @@
         <v>1132989</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1124878</v>
+        <v>1124388</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1138799</v>
+        <v>1138157</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9897303313283313</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9826453770868033</v>
+        <v>0.9822169261150346</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9948059692896937</v>
+        <v>0.9942448847300709</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2938</v>
@@ -6667,19 +6667,19 @@
         <v>3093368</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3077266</v>
+        <v>3076478</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3107009</v>
+        <v>3106765</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.982845600897237</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9777295205670796</v>
+        <v>0.9774790805161011</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9871795929764728</v>
+        <v>0.987102204833358</v>
       </c>
     </row>
     <row r="30">
@@ -7015,19 +7015,19 @@
         <v>4201</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1223</v>
+        <v>1192</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11290</v>
+        <v>11484</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0247256966075083</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007197569179615641</v>
+        <v>0.007014562762961545</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06645391408453696</v>
+        <v>0.06759457053452465</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -7039,16 +7039,16 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3031</v>
+        <v>3025</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.005118344885969077</v>
+        <v>0.005118344885969078</v>
       </c>
       <c r="O4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03117203467652426</v>
+        <v>0.03110887951755125</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -7057,19 +7057,19 @@
         <v>4699</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1258</v>
+        <v>1226</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12637</v>
+        <v>13367</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01758891647559513</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004709263223744911</v>
+        <v>0.004591197790535084</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04730717567826635</v>
+        <v>0.05003871416218347</v>
       </c>
     </row>
     <row r="5">
@@ -7086,19 +7086,19 @@
         <v>165698</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>158609</v>
+        <v>158415</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>168676</v>
+        <v>168707</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9752743033924917</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.933546085915463</v>
+        <v>0.9324054294654759</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9928024308203844</v>
+        <v>0.9929854372370386</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>162</v>
@@ -7107,7 +7107,7 @@
         <v>96733</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>94200</v>
+        <v>94206</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>97231</v>
@@ -7116,7 +7116,7 @@
         <v>0.9948816551140309</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9688279653234761</v>
+        <v>0.9688911204824489</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -7128,19 +7128,19 @@
         <v>262431</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>254493</v>
+        <v>253763</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>265872</v>
+        <v>265904</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9824110835244048</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.952692824321735</v>
+        <v>0.9499612858378169</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9952907367762551</v>
+        <v>0.9954088022094649</v>
       </c>
     </row>
     <row r="6">
@@ -7235,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15888</v>
+        <v>15696</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01128492505525551</v>
@@ -7244,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06141400365113629</v>
+        <v>0.0606684440851868</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -7269,16 +7269,16 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14480</v>
+        <v>14584</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.007650889516131703</v>
+        <v>0.007650889516131704</v>
       </c>
       <c r="V7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0379467322347945</v>
+        <v>0.0382195134372545</v>
       </c>
     </row>
     <row r="8">
@@ -7295,16 +7295,16 @@
         <v>255791</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>242823</v>
+        <v>243015</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>258711</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9887150749447445</v>
+        <v>0.9887150749447444</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9385859963488662</v>
+        <v>0.9393315559148119</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -7329,16 +7329,16 @@
         <v>378674</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>367114</v>
+        <v>367010</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>381594</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9923491104838682</v>
+        <v>0.9923491104838683</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9620532677652056</v>
+        <v>0.9617804865627458</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -7433,19 +7433,19 @@
         <v>9832</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5035</v>
+        <v>5137</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16765</v>
+        <v>17239</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05248907078476161</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02688052416018806</v>
+        <v>0.02742395777783069</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08950012988456819</v>
+        <v>0.09203420750807084</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -7454,19 +7454,19 @@
         <v>1713</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5225</v>
+        <v>4836</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.01920368377827589</v>
+        <v>0.0192036837782759</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00514753389021897</v>
+        <v>0.005194064670219652</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05857060587182984</v>
+        <v>0.05420912309290307</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -7475,19 +7475,19 @@
         <v>11545</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6789</v>
+        <v>6665</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19303</v>
+        <v>19886</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04175070353995774</v>
+        <v>0.04175070353995773</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0245513545487379</v>
+        <v>0.02410361488597719</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06980784082767312</v>
+        <v>0.07191589658023158</v>
       </c>
     </row>
     <row r="11">
@@ -7504,19 +7504,19 @@
         <v>177481</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>170548</v>
+        <v>170074</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>182278</v>
+        <v>182176</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9475109292152382</v>
+        <v>0.9475109292152383</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9104998701154317</v>
+        <v>0.907965792491929</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9731194758398115</v>
+        <v>0.9725760422221694</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>122</v>
@@ -7525,19 +7525,19 @@
         <v>87498</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>83986</v>
+        <v>84375</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>88752</v>
+        <v>88748</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9807963162217241</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9414293941281709</v>
+        <v>0.9457908769070971</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9948524661097811</v>
+        <v>0.9948059353297805</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>323</v>
@@ -7546,19 +7546,19 @@
         <v>264978</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>257220</v>
+        <v>256637</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>269734</v>
+        <v>269858</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9582492964600422</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9301921591723271</v>
+        <v>0.9280841034197684</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9754486454512623</v>
+        <v>0.9758963851140228</v>
       </c>
     </row>
     <row r="12">
@@ -7653,16 +7653,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5450</v>
+        <v>5091</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.00775622346710435</v>
+        <v>0.007756223467104348</v>
       </c>
       <c r="H13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02689097904247349</v>
+        <v>0.02511930674049305</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>3240</v>
+        <v>3582</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.00707498266984749</v>
@@ -7683,7 +7683,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02341640570510514</v>
+        <v>0.02588589065256811</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -7692,19 +7692,19 @@
         <v>2551</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>737</v>
+        <v>670</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6820</v>
+        <v>6381</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.007479814039839439</v>
+        <v>0.007479814039839438</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002162282772184979</v>
+        <v>0.001964764193281867</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01999796336634958</v>
+        <v>0.01871046413218053</v>
       </c>
     </row>
     <row r="14">
@@ -7721,16 +7721,16 @@
         <v>201081</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>197203</v>
+        <v>197562</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>202653</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9922437765328957</v>
+        <v>0.9922437765328956</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9731090209575272</v>
+        <v>0.9748806932595073</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -7742,7 +7742,7 @@
         <v>137387</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>135126</v>
+        <v>134784</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>138366</v>
@@ -7751,7 +7751,7 @@
         <v>0.9929250173301526</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9765835942948946</v>
+        <v>0.9741141093474305</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -7763,19 +7763,19 @@
         <v>338468</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>334199</v>
+        <v>334638</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>340282</v>
+        <v>340349</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9925201859601606</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9800020366336502</v>
+        <v>0.9812895358678194</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9978377172278149</v>
+        <v>0.9980352358067179</v>
       </c>
     </row>
     <row r="15">
@@ -7883,16 +7883,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2457</v>
+        <v>2192</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.0432873656001445</v>
+        <v>0.04328736560014451</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2265955634043678</v>
+        <v>0.2021144240837146</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -7904,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2388</v>
+        <v>2832</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01043608217614646</v>
@@ -7913,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0530872509344586</v>
+        <v>0.06296477134755402</v>
       </c>
     </row>
     <row r="17">
@@ -7943,7 +7943,7 @@
         <v>10376</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8388</v>
+        <v>8653</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>10845</v>
@@ -7952,7 +7952,7 @@
         <v>0.9567126343998554</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7734044365956327</v>
+        <v>0.7978855759162851</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -7964,16 +7964,16 @@
         <v>44513</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>42594</v>
+        <v>42150</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>44982</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9895639178238534</v>
+        <v>0.9895639178238536</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9469127490655411</v>
+        <v>0.9370352286524489</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -8068,19 +8068,19 @@
         <v>3489</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1273</v>
+        <v>1315</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7516</v>
+        <v>8021</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0214109271952308</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007813515097306611</v>
+        <v>0.008067149922795272</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04612086077606912</v>
+        <v>0.04921898471371847</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -8089,19 +8089,19 @@
         <v>2231</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6287</v>
+        <v>6207</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02272334166512192</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005581450400035186</v>
+        <v>0.00557485496717549</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06402643089175027</v>
+        <v>0.0632151330576879</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -8110,19 +8110,19 @@
         <v>5721</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2468</v>
+        <v>2523</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11485</v>
+        <v>11363</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.0219043702604847</v>
+        <v>0.02190437026048471</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009449743310164037</v>
+        <v>0.009658710243248474</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04397605680174047</v>
+        <v>0.04350881943788903</v>
       </c>
     </row>
     <row r="20">
@@ -8139,19 +8139,19 @@
         <v>159484</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>155457</v>
+        <v>154952</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>161700</v>
+        <v>161658</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9785890728047693</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9538791392239309</v>
+        <v>0.9507810152862816</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9921864849026936</v>
+        <v>0.9919328500772048</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>145</v>
@@ -8160,19 +8160,19 @@
         <v>95963</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>91907</v>
+        <v>91987</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>97646</v>
+        <v>97647</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9772766583348782</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9359735691082509</v>
+        <v>0.9367848669423112</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9944185495999649</v>
+        <v>0.9944251450328244</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>351</v>
@@ -8181,19 +8181,19 @@
         <v>255446</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>249682</v>
+        <v>249804</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>258699</v>
+        <v>258644</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9780956297395154</v>
+        <v>0.9780956297395155</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9560239431982591</v>
+        <v>0.956491180562111</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9905502566898358</v>
+        <v>0.9903412897567516</v>
       </c>
     </row>
     <row r="21">
@@ -8285,19 +8285,19 @@
         <v>11514</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5679</v>
+        <v>5792</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21961</v>
+        <v>22352</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03292438192482462</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01624004133742445</v>
+        <v>0.01656245787225455</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0628000717826345</v>
+        <v>0.06391563806820506</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -8306,19 +8306,19 @@
         <v>9693</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4391</v>
+        <v>4424</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20896</v>
+        <v>22907</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04148131303111814</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01878874661499103</v>
+        <v>0.01893332565714797</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08942321895427531</v>
+        <v>0.09802541224166768</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>18</v>
@@ -8327,19 +8327,19 @@
         <v>21207</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>12207</v>
+        <v>12741</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>34493</v>
+        <v>32854</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03635193852124866</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02092481982077293</v>
+        <v>0.02183997725847003</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05912545045633924</v>
+        <v>0.05631667234731749</v>
       </c>
     </row>
     <row r="23">
@@ -8356,19 +8356,19 @@
         <v>338191</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>327744</v>
+        <v>327353</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>344026</v>
+        <v>343913</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9670756180751754</v>
+        <v>0.9670756180751756</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9371999282173664</v>
+        <v>0.9360843619317951</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9837599586625755</v>
+        <v>0.9834375421277454</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>277</v>
@@ -8377,19 +8377,19 @@
         <v>223987</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>212784</v>
+        <v>210773</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>229289</v>
+        <v>229256</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9585186869688819</v>
+        <v>0.9585186869688818</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9105767810457254</v>
+        <v>0.9019745877583322</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9812112533850089</v>
+        <v>0.9810666743428519</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>558</v>
@@ -8398,19 +8398,19 @@
         <v>562178</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>548892</v>
+        <v>550531</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>571178</v>
+        <v>570644</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9636480614787513</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9408745495436609</v>
+        <v>0.9436833276526825</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9790751801792271</v>
+        <v>0.9781600227415296</v>
       </c>
     </row>
     <row r="24">
@@ -8505,16 +8505,16 @@
         <v>730</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7678</v>
+        <v>7578</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.009063325410775635</v>
+        <v>0.009063325410775636</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002331561601532667</v>
+        <v>0.00233020015399924</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02451363741645815</v>
+        <v>0.0241973913868011</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -8526,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5541</v>
+        <v>5034</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01366885280874309</v>
@@ -8535,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04853740298043138</v>
+        <v>0.0440932545092713</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -8544,19 +8544,19 @@
         <v>4399</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1526</v>
+        <v>1531</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10220</v>
+        <v>10035</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01029365819258394</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003569788785981672</v>
+        <v>0.003582890749426373</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0239142683218295</v>
+        <v>0.02348186537713641</v>
       </c>
     </row>
     <row r="26">
@@ -8573,7 +8573,7 @@
         <v>310355</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>305516</v>
+        <v>305616</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>312464</v>
@@ -8582,10 +8582,10 @@
         <v>0.9909366745892243</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9754863625835418</v>
+        <v>0.9758026086131987</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9976684383984675</v>
+        <v>0.9976697998460006</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>134</v>
@@ -8594,7 +8594,7 @@
         <v>112605</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>108625</v>
+        <v>109132</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>114166</v>
@@ -8603,7 +8603,7 @@
         <v>0.9863311471912569</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9514625970195688</v>
+        <v>0.9559067454907277</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -8615,19 +8615,19 @@
         <v>422962</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>417141</v>
+        <v>417326</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>425835</v>
+        <v>425830</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9897063418074159</v>
+        <v>0.9897063418074161</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.976085731678171</v>
+        <v>0.9765181346228637</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9964302112140184</v>
+        <v>0.9964171092505736</v>
       </c>
     </row>
     <row r="27">
@@ -8719,19 +8719,19 @@
         <v>36366</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>24348</v>
+        <v>25480</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>50883</v>
+        <v>53709</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02166461686918816</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01450507408791899</v>
+        <v>0.01517951670720425</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03031279102622324</v>
+        <v>0.03199657000424741</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>20</v>
@@ -8740,19 +8740,19 @@
         <v>17144</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>10490</v>
+        <v>10282</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>28799</v>
+        <v>28174</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01895294476522579</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01159679876981761</v>
+        <v>0.01136709757893819</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03183745372938492</v>
+        <v>0.03114575368916072</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>55</v>
@@ -8761,19 +8761,19 @@
         <v>53510</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>40564</v>
+        <v>39432</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>73014</v>
+        <v>69988</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.02071503823280385</v>
+        <v>0.02071503823280386</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01570336073091354</v>
+        <v>0.01526496235001995</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02826555243181266</v>
+        <v>0.02709389389658603</v>
       </c>
     </row>
     <row r="29">
@@ -8790,19 +8790,19 @@
         <v>1642218</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1627701</v>
+        <v>1624875</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1654236</v>
+        <v>1653104</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9783353831308118</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9696872089737768</v>
+        <v>0.9680034299957526</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9854949259120812</v>
+        <v>0.9848204832927958</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1182</v>
@@ -8811,19 +8811,19 @@
         <v>887432</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>875777</v>
+        <v>876402</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>894086</v>
+        <v>894294</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9810470552347742</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.968162546270615</v>
+        <v>0.9688542463108393</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9884032012301823</v>
+        <v>0.9886329024210617</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2732</v>
@@ -8832,19 +8832,19 @@
         <v>2529650</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2510146</v>
+        <v>2513172</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2542596</v>
+        <v>2543728</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9792849617671961</v>
+        <v>0.9792849617671963</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9717344475681872</v>
+        <v>0.9729061061034137</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9842966392690863</v>
+        <v>0.9847350376499799</v>
       </c>
     </row>
     <row r="30">
